--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Java\Eclipse\MyFinancialPlan-project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6EFDB6-209B-489A-B4EC-0894DCBCE55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF13FE9-5E03-4CDE-A09C-1B9DF617DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19335" yWindow="4995" windowWidth="17655" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15750" yWindow="2505" windowWidth="17655" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Java\Eclipse\MyFinancialPlan-project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF13FE9-5E03-4CDE-A09C-1B9DF617DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84706791-5F69-4EFD-B69D-4D989F24731F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15750" yWindow="2505" windowWidth="17655" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="3480" windowWidth="17625" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>param1</t>
   </si>
@@ -251,6 +251,33 @@
   </si>
   <si>
     <t>Entertainment and ieisure,Cash withdrawal,nextTab,nextTab</t>
+  </si>
+  <si>
+    <t>choosePathTest</t>
+  </si>
+  <si>
+    <t>Ilya Rahmilevich</t>
+  </si>
+  <si>
+    <t>0546686031</t>
+  </si>
+  <si>
+    <t>creditCheckoutTest</t>
+  </si>
+  <si>
+    <t>${CREDIT}</t>
+  </si>
+  <si>
+    <t>${ID}</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>actionsTest</t>
+  </si>
+  <si>
+    <t>medianTest</t>
   </si>
 </sst>
 </file>
@@ -619,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,45 +849,103 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="13">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Java\Eclipse\MyFinancialPlan-project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84706791-5F69-4EFD-B69D-4D989F24731F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C7384-F7D8-451F-A175-C7A3E6466290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="3480" windowWidth="17625" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10185" yWindow="3225" windowWidth="17625" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>param1</t>
   </si>
@@ -278,6 +278,21 @@
   </si>
   <si>
     <t>medianTest</t>
+  </si>
+  <si>
+    <t>myPlan_TDD</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>A,B,C,D,E</t>
+  </si>
+  <si>
+    <t>-1,-2</t>
+  </si>
+  <si>
+    <t>$,%</t>
   </si>
 </sst>
 </file>
@@ -316,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -364,6 +379,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -646,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,6 +964,62 @@
         <v>18</v>
       </c>
       <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="12">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Java\Eclipse\MyFinancialPlan-project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C7384-F7D8-451F-A175-C7A3E6466290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16846B0-02C5-43B8-9DC3-891446F59B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="3225" windowWidth="17625" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="4275" windowWidth="17625" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
   <si>
     <t>param1</t>
   </si>
@@ -293,6 +293,21 @@
   </si>
   <si>
     <t>$,%</t>
+  </si>
+  <si>
+    <t>param6</t>
+  </si>
+  <si>
+    <t>recurring expense</t>
+  </si>
+  <si>
+    <t>financial goals</t>
+  </si>
+  <si>
+    <t>CongratulationTest</t>
+  </si>
+  <si>
+    <t>I felt that many aspects related to my expenses and livelihood were addressed; which was positive. Although at first I was a little stressed about how much I would really be able to save; and if I went into the red; how I would be able to get through the month?</t>
   </si>
 </sst>
 </file>
@@ -664,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,9 +693,10 @@
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -699,8 +715,11 @@
       <c r="F1" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -714,7 +733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -726,7 +745,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -740,7 +759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -754,7 +773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -768,7 +787,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -782,7 +801,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -796,7 +815,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -810,7 +829,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -827,7 +846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -846,8 +865,11 @@
       <c r="F11" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G11" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -866,120 +888,122 @@
       <c r="F12" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>77</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="14"/>
       <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C15" s="13">
         <v>26</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B16" s="15">
         <v>2</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="15">
-        <v>1</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="8"/>
       <c r="E16" s="15"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="12">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>84</v>
       </c>
@@ -987,27 +1011,27 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
@@ -1015,9 +1039,23 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D24" s="16" t="s">
         <v>59</v>
       </c>
     </row>
